--- a/test-resources/template.xlsx
+++ b/test-resources/template.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,24 +80,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,12 +123,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,14 +493,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,54 +515,120 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
